--- a/biology/Mycologie/Coprin_noir_d'encre/Coprin_noir_d'encre.xlsx
+++ b/biology/Mycologie/Coprin_noir_d'encre/Coprin_noir_d'encre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coprin_noir_d%27encre</t>
+          <t>Coprin_noir_d'encre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coprinopsis atramentaria
 Le Coprin noir d'encre (Coprinopsis atramentaria) est une espèce de champignons basidiomycètes de la famille des Psathyrellaceae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Coprin_noir_d%27encre</t>
+          <t>Coprin_noir_d'encre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,49 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le Coprin noir d'encre est décrit pour la première fois par le naturaliste français Pierre Bulliard en 1786 sous le nom de Agaricus atramentarius avant d'être placé dans le genre Coprinus en 1838 par Elias Magnus Fries, père de la mycologie moderne. Son épithète vient du latin atramentum signifiant « encre ».
-À l'époque de Fries, Coprinus est de définition très large, comprenant une centaine d'espèces. Les analyses moléculaires des années 2000 séparent les espèces de Psathyrellaceae des Agaricaceae ; le genre Coprinus est alors éclaté et le genre Coprinopsis est remis au goût du jour[1].
-Synonymes
-Agaricus atramentarius Bull. 1786.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Coprin noir d'encre est décrit pour la première fois par le naturaliste français Pierre Bulliard en 1786 sous le nom de Agaricus atramentarius avant d'être placé dans le genre Coprinus en 1838 par Elias Magnus Fries, père de la mycologie moderne. Son épithète vient du latin atramentum signifiant « encre ».
+À l'époque de Fries, Coprinus est de définition très large, comprenant une centaine d'espèces. Les analyses moléculaires des années 2000 séparent les espèces de Psathyrellaceae des Agaricaceae ; le genre Coprinus est alors éclaté et le genre Coprinopsis est remis au goût du jour.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Coprin_noir_d'encre</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coprin_noir_d%27encre</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Agaricus atramentarius Bull. 1786.
 Agaricus fimetarius.
 Agaricus luridus Bolton 1788.
 Agaricus plicatus Pers. 1797.
@@ -531,44 +580,13 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Coprin_noir_d%27encre</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Coprin_noir_d%27encre</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Habitat et spécificité</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les coprins sont des champignons saprophytes fort communs vivant sur les sols fumés ou les bois en décomposition dont le chapeau et les lames pâles au début noircissent assez rapidement par déliquescence en se transformant ainsi en une espèce de liquide semblable à de l'encre de chine, et qui contient les spores du champignons, qui se propagent ainsi dans le sol.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Coprin_noir_d%27encre</t>
+          <t>Coprin_noir_d'encre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,10 +601,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Habitat et spécificité</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les coprins sont des champignons saprophytes fort communs vivant sur les sols fumés ou les bois en décomposition dont le chapeau et les lames pâles au début noircissent assez rapidement par déliquescence en se transformant ainsi en une espèce de liquide semblable à de l'encre de chine, et qui contient les spores du champignons, qui se propagent ainsi dans le sol.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Coprin_noir_d'encre</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coprin_noir_d%27encre</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Chapeau gris blanc à gris brun (3-7 cm), fortement plissé, en forme d'œuf, qui ne s'ouvre jamais et se liquéfie littéralement sur lui-même à partir de ses lamelles en se transformant en une encre particulièrement noire.
 Les lamelles qui sont libres et ventrues constituent presque entièrement tout le corps du champignon. Elles sont blanches, ensuite brunes et puis deviennent entièrement noires.
@@ -597,35 +650,37 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Coprin_noir_d%27encre</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Coprin_noir_d'encre</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Coprin_noir_d%27encre</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon l'ANSES[2], le Coprin noir d'encre est un champignon comestible à condition qu'il soit très jeune et que l'on ne consomme pas d'alcool pendant le repas ou dans les 72 heures qui suivent.
-Le syndrome coprinien est un empoisonnement dû à la coprine qui, associée à l'alcool, bloque l'acétaldéhyde déshydrogénase et a un effet Antabuse, entraînant une intolérance à l'alcool pendant 5–10 j. Ce syndrome « se traduit dans les 30 min à 2 h après la consommation d'alcool par une sensation de malaise, une érythrose cutanée (surtout du visage et de la partie supérieure du thorax), une céphalée, des sueurs, une tachycardie sinusale et une hypotension artérielle[3] ». En raison de ce risque, certains mycologues[4] déconseillent sa consommation.
-Des cas d'effets psychodysleptiques sont signalés après la consommation de 30 à 50 spécimens. Cette particularité du champignon serait assez connue en Pologne[5],[6].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'ANSES, le Coprin noir d'encre est un champignon comestible à condition qu'il soit très jeune et que l'on ne consomme pas d'alcool pendant le repas ou dans les 72 heures qui suivent.
+Le syndrome coprinien est un empoisonnement dû à la coprine qui, associée à l'alcool, bloque l'acétaldéhyde déshydrogénase et a un effet Antabuse, entraînant une intolérance à l'alcool pendant 5–10 j. Ce syndrome « se traduit dans les 30 min à 2 h après la consommation d'alcool par une sensation de malaise, une érythrose cutanée (surtout du visage et de la partie supérieure du thorax), une céphalée, des sueurs, une tachycardie sinusale et une hypotension artérielle ». En raison de ce risque, certains mycologues déconseillent sa consommation.
+Des cas d'effets psychodysleptiques sont signalés après la consommation de 30 à 50 spécimens. Cette particularité du champignon serait assez connue en Pologne,.
 </t>
         </is>
       </c>
